--- a/HicomIOS/Master/Template/Template_QuotationSummaryReport-Contract.xlsx
+++ b/HicomIOS/Master/Template/Template_QuotationSummaryReport-Contract.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hi-Com\HicomIOS\Master\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IM-Soft\_Ourdream\Hi-Com04_1\HicomIOS\Master\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71D9C4B-8592-4617-B04E-0FAD333244B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-20617" yWindow="-5722" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HI-COM CORPORATION (THAILAND) CO., LTD.</t>
   </si>
@@ -38,9 +39,6 @@
     <t>CONTACT</t>
   </si>
   <si>
-    <t>No. P/O</t>
-  </si>
-  <si>
     <t>REMARK</t>
   </si>
   <si>
@@ -50,15 +48,9 @@
     <t>Y</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
     <t>NO.</t>
   </si>
   <si>
-    <t>DETAIL</t>
-  </si>
-  <si>
     <t>SUMMARY QUOTATION OF SERVICE CONTRACT</t>
   </si>
   <si>
@@ -74,45 +66,15 @@
     <t>PROJECT</t>
   </si>
   <si>
-    <t>PRODUCT</t>
-  </si>
-  <si>
     <t>Q'TY</t>
   </si>
   <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCOUNT </t>
-  </si>
-  <si>
-    <t>TOTAL AMOUNT</t>
-  </si>
-  <si>
     <t>Type of Contract</t>
   </si>
   <si>
-    <t>Startiing Date</t>
-  </si>
-  <si>
-    <t>Expire Date</t>
-  </si>
-  <si>
     <t>AMOUNT P/O</t>
   </si>
   <si>
-    <t>Invoice Date</t>
-  </si>
-  <si>
-    <t>Inv. No.</t>
-  </si>
-  <si>
-    <t>SCHEDULE</t>
-  </si>
-  <si>
-    <t>ทำสัญญาใหม่</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -125,25 +87,42 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>ISSUE DATE</t>
+    <t>CREATE DATE</t>
+  </si>
+  <si>
+    <t>Startiing Date / Expire Date</t>
+  </si>
+  <si>
+    <t>QU STATUS</t>
+  </si>
+  <si>
+    <t>UPDATE DATE</t>
+  </si>
+  <si>
+    <t>P/O No.</t>
+  </si>
+  <si>
+    <t>P/O Date</t>
+  </si>
+  <si>
+    <t>INVOICE DATE</t>
+  </si>
+  <si>
+    <t>INVOICE No.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="187" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -165,12 +144,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Cordia New"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Cordia New"/>
       <family val="2"/>
@@ -178,11 +151,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Cordia New"/>
       <family val="2"/>
     </font>
     <font>
@@ -397,9 +365,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="5" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -409,20 +377,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,36 +386,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,28 +410,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,6 +449,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,18 +467,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,19 +479,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="40" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma 2" xfId="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,7 +518,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -676,6 +593,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -711,6 +645,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -886,339 +837,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AO12" sqref="AO12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="18.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17.140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="1"/>
-    <col min="28" max="28" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="39" width="9.140625" style="1"/>
-    <col min="40" max="42" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.125" style="1"/>
+    <col min="2" max="2" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.125" style="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.125" style="1"/>
+    <col min="19" max="19" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.125" style="1"/>
+    <col min="24" max="26" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="35" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="10"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="11"/>
+      <c r="W1" s="7"/>
     </row>
-    <row r="2" spans="1:43" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+    <row r="2" spans="1:27" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="11"/>
+      <c r="W2" s="7"/>
     </row>
-    <row r="3" spans="1:43" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:27" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="C3" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="J3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="46" t="s">
+      <c r="L3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="42" t="s">
+      <c r="M3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="U3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="44" t="s">
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="P4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="Q4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG3" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-    </row>
-    <row r="4" spans="1:43" s="28" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD4" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI4" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK4" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="27"/>
-      <c r="AQ4" s="27"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="L3:L4"/>
+  <mergeCells count="19">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1226,24 +1065,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HicomIOS/Master/Template/Template_QuotationSummaryReport-Contract.xlsx
+++ b/HicomIOS/Master/Template/Template_QuotationSummaryReport-Contract.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IM-Soft\_Ourdream\Hi-Com04_1\HicomIOS\Master\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71D9C4B-8592-4617-B04E-0FAD333244B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E7EA5E-DCC3-4E82-8FD8-871217567E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20617" yWindow="-5722" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -428,67 +426,67 @@
     <xf numFmtId="38" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -930,65 +928,65 @@
       <c r="W2" s="7"/>
     </row>
     <row r="3" spans="1:27" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
       <c r="G3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="22" t="s">
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="U3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="26" t="s">
+      <c r="V3" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="27" t="s">
+      <c r="W3" s="33" t="s">
         <v>5</v>
       </c>
       <c r="X3" s="10"/>
@@ -997,8 +995,8 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="1:27" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="32"/>
       <c r="D4" s="9" t="s">
         <v>17</v>
@@ -1010,13 +1008,13 @@
         <v>7</v>
       </c>
       <c r="G4" s="32"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="31"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1026,12 +1024,12 @@
       <c r="Q4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="28"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="41"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
@@ -1039,6 +1037,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="M3:M4"/>
@@ -1046,44 +1056,8 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>